--- a/Pilot/pilot_traits.xlsx
+++ b/Pilot/pilot_traits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thaisvasconcelos/Desktop/WCVP_special_issue/Eve_MyrtalesPAFTOL/myrtales/Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA4BC63-9A1D-3E4E-8D8F-7DE51ED0BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010C85A-6D39-204A-A0EB-D25CFD762691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38220" yWindow="1340" windowWidth="28040" windowHeight="17040" xr2:uid="{0A30DCE9-AC72-424A-86D1-C25C4445239A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="307">
   <si>
     <t>Family</t>
   </si>
@@ -876,9 +876,6 @@
     <t>dry</t>
   </si>
   <si>
-    <t>tv_scoring_ovule_number</t>
-  </si>
-  <si>
     <t>tv_scoring_seed_number1</t>
   </si>
   <si>
@@ -961,13 +958,106 @@
   </si>
   <si>
     <t>1.45 x 1.7</t>
+  </si>
+  <si>
+    <t>tv_scoring_ovule_number2</t>
+  </si>
+  <si>
+    <t>tv_scoring_ovule_number1</t>
+  </si>
+  <si>
+    <t>less_than_50</t>
+  </si>
+  <si>
+    <t>100_or_more</t>
+  </si>
+  <si>
+    <t>50_to_99</t>
+  </si>
+  <si>
+    <t>0.75 x 0.25</t>
+  </si>
+  <si>
+    <t>2.5 x 2.65</t>
+  </si>
+  <si>
+    <t>4.75 x 0.5</t>
+  </si>
+  <si>
+    <t>3.75 x 3.25</t>
+  </si>
+  <si>
+    <t>1.5 x 0.35</t>
+  </si>
+  <si>
+    <t>0.75 x 0.55</t>
+  </si>
+  <si>
+    <t>1.5 x 1.1</t>
+  </si>
+  <si>
+    <t>tmp</t>
+  </si>
+  <si>
+    <t>20.75 x 11.5</t>
+  </si>
+  <si>
+    <t>4.5 x 10</t>
+  </si>
+  <si>
+    <t>1.7 x 1.65</t>
+  </si>
+  <si>
+    <t>0.9 x 0.6</t>
+  </si>
+  <si>
+    <t>0.6 x 0.5</t>
+  </si>
+  <si>
+    <t>0.8 x 0.4</t>
+  </si>
+  <si>
+    <t>2.75 x 1.85</t>
+  </si>
+  <si>
+    <t>3.7 x 3.35</t>
+  </si>
+  <si>
+    <t>0.65 x 0.45</t>
+  </si>
+  <si>
+    <t>4.3 x 1.9</t>
+  </si>
+  <si>
+    <t>0.5 x 0.3</t>
+  </si>
+  <si>
+    <t>8.5 x 7</t>
+  </si>
+  <si>
+    <t>1.05 x 0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 x 1.5 </t>
+  </si>
+  <si>
+    <t>0.85 x 0.25</t>
+  </si>
+  <si>
+    <t>up_to_1</t>
+  </si>
+  <si>
+    <t>1_to_10</t>
+  </si>
+  <si>
+    <t>over_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,13 +1075,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1025,11 +1108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3A47C-33A0-8043-9D46-40950C34775E}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,20 +1438,22 @@
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" customWidth="1"/>
-    <col min="20" max="20" width="38.5" customWidth="1"/>
-    <col min="21" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="38.5" customWidth="1"/>
+    <col min="23" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,70 +1473,76 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1471,59 +1561,71 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2">
         <v>13.5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="N2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2">
+        <v>3.45</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" t="s">
-        <v>254</v>
-      </c>
-      <c r="V2" t="s">
-        <v>254</v>
+      <c r="W2" t="s">
+        <v>253</v>
       </c>
       <c r="X2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z2">
+      <c r="AA2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB2">
         <v>2.25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1542,59 +1644,71 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3">
         <v>275</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="N3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O3">
+        <v>0.49</v>
+      </c>
+      <c r="P3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>26</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" t="s">
-        <v>255</v>
-      </c>
-      <c r="V3" t="s">
-        <v>260</v>
+      <c r="W3" t="s">
+        <v>254</v>
       </c>
       <c r="X3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z3">
+      <c r="AA3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB3">
         <v>2.75</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1613,59 +1727,71 @@
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4">
         <v>6.5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="N4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4">
+        <v>23.94</v>
+      </c>
+      <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>26</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>6</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>47</v>
       </c>
-      <c r="U4" t="s">
-        <v>255</v>
-      </c>
-      <c r="V4" t="s">
-        <v>260</v>
+      <c r="W4" t="s">
+        <v>254</v>
       </c>
       <c r="X4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z4" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z4">
+      <c r="AA4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB4">
         <v>1.3</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1684,59 +1810,71 @@
       <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+      <c r="I5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5">
         <v>500</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5">
+        <v>6.28</v>
+      </c>
+      <c r="P5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>26</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>4</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" t="s">
-        <v>255</v>
-      </c>
-      <c r="V5" t="s">
-        <v>260</v>
+      <c r="W5" t="s">
+        <v>254</v>
       </c>
       <c r="X5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z5" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z5">
+      <c r="AA5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB5">
         <v>5</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1755,59 +1893,71 @@
       <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="N6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O6">
+        <v>9.84</v>
+      </c>
+      <c r="P6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>26</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>6</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>65</v>
       </c>
-      <c r="U6" t="s">
-        <v>255</v>
-      </c>
-      <c r="V6" t="s">
-        <v>260</v>
+      <c r="W6" t="s">
+        <v>254</v>
       </c>
       <c r="X6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z6" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z6">
+      <c r="AA6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB6">
         <v>2.25</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1826,59 +1976,71 @@
       <c r="F7" t="s">
         <v>71</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="I7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="N7" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7">
+        <v>7.74</v>
+      </c>
+      <c r="P7" t="s">
         <v>23</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>74</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>75</v>
       </c>
-      <c r="U7" t="s">
-        <v>255</v>
-      </c>
-      <c r="V7" t="s">
-        <v>260</v>
+      <c r="W7" t="s">
+        <v>254</v>
       </c>
       <c r="X7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z7" t="s">
         <v>76</v>
       </c>
-      <c r="Y7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z7">
+      <c r="AA7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB7">
         <v>5.5</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1897,56 +2059,71 @@
       <c r="F8" t="s">
         <v>81</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8">
+        <v>37.5</v>
+      </c>
+      <c r="I8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
-        <v>251</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8">
         <v>35</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>83</v>
       </c>
+      <c r="M8" t="s">
+        <v>304</v>
+      </c>
       <c r="N8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O8">
+        <v>0.59</v>
+      </c>
+      <c r="P8" t="s">
         <v>56</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>26</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>4</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>84</v>
       </c>
-      <c r="U8" t="s">
-        <v>254</v>
-      </c>
-      <c r="V8" t="s">
-        <v>260</v>
+      <c r="W8" t="s">
+        <v>253</v>
       </c>
       <c r="X8" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z8" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z8">
+      <c r="AA8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1965,56 +2142,71 @@
       <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
         <v>90</v>
       </c>
-      <c r="I9" t="s">
-        <v>251</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>91</v>
       </c>
+      <c r="M9" t="s">
+        <v>306</v>
+      </c>
       <c r="N9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9">
+        <v>20.8</v>
+      </c>
+      <c r="P9" t="s">
         <v>92</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>26</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>6</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>93</v>
       </c>
-      <c r="U9" t="s">
-        <v>255</v>
-      </c>
-      <c r="V9" t="s">
-        <v>260</v>
+      <c r="W9" t="s">
+        <v>254</v>
       </c>
       <c r="X9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z9" t="s">
         <v>94</v>
       </c>
-      <c r="Y9" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB9">
         <v>6.75</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2033,56 +2225,71 @@
       <c r="F10" t="s">
         <v>98</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
         <v>99</v>
       </c>
-      <c r="I10" t="s">
-        <v>253</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10">
         <v>100</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
+      <c r="M10" t="s">
+        <v>305</v>
+      </c>
       <c r="N10" t="s">
+        <v>283</v>
+      </c>
+      <c r="O10">
+        <v>7.46</v>
+      </c>
+      <c r="P10" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>24</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>26</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>101</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>102</v>
       </c>
-      <c r="U10" t="s">
-        <v>256</v>
-      </c>
-      <c r="V10" t="s">
-        <v>260</v>
+      <c r="W10" t="s">
+        <v>255</v>
       </c>
       <c r="X10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z10" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB10">
         <v>2.5</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2101,56 +2308,71 @@
       <c r="F11" t="s">
         <v>107</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11">
+        <v>27.5</v>
+      </c>
+      <c r="I11" t="s">
         <v>108</v>
       </c>
-      <c r="I11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11">
         <v>6.5</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
+      <c r="M11" t="s">
+        <v>306</v>
+      </c>
       <c r="N11" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>24</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>26</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>110</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>111</v>
       </c>
-      <c r="U11" t="s">
-        <v>257</v>
-      </c>
-      <c r="V11" t="s">
-        <v>257</v>
+      <c r="W11" t="s">
+        <v>256</v>
       </c>
       <c r="X11" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z11" t="s">
         <v>112</v>
       </c>
-      <c r="Y11" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB11">
         <v>4</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2169,56 +2391,71 @@
       <c r="F12" t="s">
         <v>116</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="I12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12">
         <v>50</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>118</v>
       </c>
+      <c r="M12" t="s">
+        <v>305</v>
+      </c>
       <c r="N12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O12">
+        <v>1.65</v>
+      </c>
+      <c r="P12" t="s">
         <v>23</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>24</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>26</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>119</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>120</v>
       </c>
-      <c r="U12" t="s">
-        <v>255</v>
-      </c>
-      <c r="V12" t="s">
-        <v>260</v>
+      <c r="W12" t="s">
+        <v>254</v>
       </c>
       <c r="X12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z12" t="s">
         <v>121</v>
       </c>
-      <c r="Y12" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB12">
         <v>6</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2237,56 +2474,71 @@
       <c r="F13" t="s">
         <v>125</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="I13" t="s">
-        <v>253</v>
-      </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>126</v>
       </c>
+      <c r="M13" t="s">
+        <v>305</v>
+      </c>
       <c r="N13" t="s">
+        <v>286</v>
+      </c>
+      <c r="O13">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="s">
         <v>23</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>24</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>26</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>110</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>120</v>
       </c>
-      <c r="U13" t="s">
-        <v>255</v>
-      </c>
-      <c r="V13" t="s">
-        <v>260</v>
+      <c r="W13" t="s">
+        <v>254</v>
       </c>
       <c r="X13" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z13" t="s">
         <v>127</v>
       </c>
-      <c r="Y13" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z13">
+      <c r="AA13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB13">
         <v>5.5</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2305,59 +2557,74 @@
       <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
         <v>131</v>
       </c>
-      <c r="I14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>132</v>
       </c>
+      <c r="M14" t="s">
+        <v>305</v>
+      </c>
       <c r="N14" t="s">
+        <v>287</v>
+      </c>
+      <c r="O14">
+        <v>5.18</v>
+      </c>
+      <c r="P14" t="s">
         <v>23</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>24</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>26</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>110</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>111</v>
       </c>
-      <c r="U14" t="s">
-        <v>257</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>256</v>
+      </c>
+      <c r="X14" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y14" t="s">
         <v>260</v>
       </c>
-      <c r="W14" t="s">
-        <v>261</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>133</v>
       </c>
-      <c r="Y14" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z14">
+      <c r="AA14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB14">
         <v>7.25</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2376,56 +2643,71 @@
       <c r="F15" t="s">
         <v>98</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="s">
-        <v>253</v>
-      </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>138</v>
       </c>
+      <c r="M15" t="s">
+        <v>306</v>
+      </c>
       <c r="N15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O15">
+        <v>749.28</v>
+      </c>
+      <c r="P15" t="s">
         <v>139</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>24</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>26</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>140</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>102</v>
       </c>
-      <c r="U15" t="s">
-        <v>256</v>
-      </c>
-      <c r="V15" t="s">
-        <v>260</v>
+      <c r="W15" t="s">
+        <v>255</v>
       </c>
       <c r="X15" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z15" t="s">
         <v>141</v>
       </c>
-      <c r="Y15" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB15">
         <v>15</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2444,56 +2726,71 @@
       <c r="F16" t="s">
         <v>143</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
         <v>144</v>
       </c>
-      <c r="I16" t="s">
-        <v>251</v>
-      </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16">
         <v>40</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>145</v>
       </c>
+      <c r="M16" t="s">
+        <v>306</v>
+      </c>
       <c r="N16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O16">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="P16" t="s">
         <v>146</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>24</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>147</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>6</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>148</v>
       </c>
-      <c r="U16" t="s">
-        <v>255</v>
-      </c>
-      <c r="V16" t="s">
-        <v>260</v>
+      <c r="W16" t="s">
+        <v>254</v>
       </c>
       <c r="X16" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z16" t="s">
         <v>149</v>
       </c>
-      <c r="Y16" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z16">
+      <c r="AA16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB16">
         <v>10</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2512,56 +2809,71 @@
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17">
         <v>40</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>153</v>
       </c>
+      <c r="M17" t="s">
+        <v>305</v>
+      </c>
       <c r="N17" t="s">
+        <v>291</v>
+      </c>
+      <c r="O17">
+        <v>8.81</v>
+      </c>
+      <c r="P17" t="s">
         <v>23</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>24</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>26</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>4</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>154</v>
       </c>
-      <c r="U17" t="s">
-        <v>255</v>
-      </c>
-      <c r="V17" t="s">
-        <v>260</v>
+      <c r="W17" t="s">
+        <v>254</v>
       </c>
       <c r="X17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z17" t="s">
         <v>155</v>
       </c>
-      <c r="Y17" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB17">
         <v>3</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2580,56 +2892,71 @@
       <c r="F18" t="s">
         <v>158</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
         <v>159</v>
       </c>
-      <c r="I18" t="s">
-        <v>251</v>
-      </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>160</v>
       </c>
+      <c r="M18" t="s">
+        <v>305</v>
+      </c>
       <c r="N18" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18">
+        <v>1.7</v>
+      </c>
+      <c r="P18" t="s">
         <v>23</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>24</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>26</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>6</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>111</v>
       </c>
-      <c r="U18" t="s">
-        <v>257</v>
-      </c>
-      <c r="V18" t="s">
-        <v>257</v>
+      <c r="W18" t="s">
+        <v>256</v>
       </c>
       <c r="X18" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z18" t="s">
         <v>161</v>
       </c>
-      <c r="Y18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z18">
+      <c r="AA18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB18">
         <v>3.25</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2648,56 +2975,71 @@
       <c r="F19" t="s">
         <v>165</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
         <v>166</v>
       </c>
-      <c r="I19" t="s">
-        <v>251</v>
-      </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>167</v>
       </c>
+      <c r="M19" t="s">
+        <v>304</v>
+      </c>
       <c r="N19" t="s">
+        <v>293</v>
+      </c>
+      <c r="O19">
+        <v>0.94</v>
+      </c>
+      <c r="P19" t="s">
         <v>23</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>24</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>26</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>168</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>169</v>
       </c>
-      <c r="U19" t="s">
-        <v>255</v>
-      </c>
-      <c r="V19" t="s">
-        <v>260</v>
+      <c r="W19" t="s">
+        <v>254</v>
       </c>
       <c r="X19" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z19" t="s">
         <v>170</v>
       </c>
-      <c r="Y19" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z19">
+      <c r="AA19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB19">
         <v>1.35</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2716,56 +3058,71 @@
       <c r="F20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
         <v>117</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="s">
+        <v>304</v>
+      </c>
+      <c r="N20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" t="s">
+        <v>176</v>
+      </c>
+      <c r="W20" t="s">
         <v>253</v>
       </c>
-      <c r="J20">
-        <v>50</v>
-      </c>
-      <c r="K20" t="s">
-        <v>175</v>
-      </c>
-      <c r="N20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" t="s">
-        <v>176</v>
-      </c>
-      <c r="U20" t="s">
-        <v>254</v>
-      </c>
-      <c r="V20" t="s">
-        <v>254</v>
-      </c>
       <c r="X20" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z20" t="s">
         <v>177</v>
       </c>
-      <c r="Y20" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z20">
+      <c r="AA20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB20">
         <v>5.5</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2784,56 +3141,71 @@
       <c r="F21" t="s">
         <v>180</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
         <v>181</v>
       </c>
-      <c r="I21" t="s">
-        <v>251</v>
-      </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21">
         <v>17.5</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>182</v>
       </c>
+      <c r="M21" t="s">
+        <v>306</v>
+      </c>
       <c r="N21" t="s">
+        <v>295</v>
+      </c>
+      <c r="O21">
+        <v>15.97</v>
+      </c>
+      <c r="P21" t="s">
         <v>23</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>24</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>26</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>6</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>183</v>
       </c>
-      <c r="U21" t="s">
-        <v>256</v>
-      </c>
-      <c r="V21" t="s">
-        <v>260</v>
+      <c r="W21" t="s">
+        <v>255</v>
       </c>
       <c r="X21" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z21" t="s">
         <v>184</v>
       </c>
-      <c r="Y21" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z21">
+      <c r="AA21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB21">
         <v>7.25</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AC21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2852,59 +3224,74 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
         <v>117</v>
       </c>
-      <c r="I22" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22">
         <v>50</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>189</v>
       </c>
+      <c r="M22" t="s">
+        <v>306</v>
+      </c>
       <c r="N22" t="s">
+        <v>296</v>
+      </c>
+      <c r="O22">
+        <v>38.92</v>
+      </c>
+      <c r="P22" t="s">
         <v>146</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>24</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>26</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>8</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>111</v>
       </c>
-      <c r="U22" t="s">
-        <v>257</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
+        <v>256</v>
+      </c>
+      <c r="X22" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y22" t="s">
         <v>260</v>
       </c>
-      <c r="W22" t="s">
-        <v>261</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>190</v>
       </c>
-      <c r="Y22" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB22">
         <v>13</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AC22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2923,56 +3310,71 @@
       <c r="F23" t="s">
         <v>194</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s">
         <v>195</v>
       </c>
-      <c r="I23" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>252</v>
+      </c>
+      <c r="K23">
         <v>51.5</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>196</v>
       </c>
+      <c r="M23" t="s">
+        <v>304</v>
+      </c>
       <c r="N23" t="s">
+        <v>297</v>
+      </c>
+      <c r="O23">
+        <v>0.92</v>
+      </c>
+      <c r="P23" t="s">
         <v>23</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>24</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>26</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>6</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>197</v>
       </c>
-      <c r="U23" t="s">
-        <v>255</v>
-      </c>
-      <c r="V23" t="s">
-        <v>260</v>
+      <c r="W23" t="s">
+        <v>254</v>
       </c>
       <c r="X23" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z23" t="s">
         <v>198</v>
       </c>
-      <c r="Y23" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z23">
+      <c r="AA23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB23">
         <v>2.25</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AC23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2991,56 +3393,71 @@
       <c r="F24" t="s">
         <v>201</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
         <v>202</v>
       </c>
-      <c r="I24" t="s">
-        <v>253</v>
-      </c>
-      <c r="J24">
+      <c r="J24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24">
         <v>100</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>203</v>
       </c>
+      <c r="M24" t="s">
+        <v>306</v>
+      </c>
       <c r="N24" t="s">
+        <v>298</v>
+      </c>
+      <c r="O24">
+        <v>25.65</v>
+      </c>
+      <c r="P24" t="s">
         <v>204</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>24</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>6</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>205</v>
       </c>
-      <c r="U24" t="s">
-        <v>255</v>
-      </c>
-      <c r="V24" t="s">
-        <v>260</v>
+      <c r="W24" t="s">
+        <v>254</v>
       </c>
       <c r="X24" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z24" t="s">
         <v>206</v>
       </c>
-      <c r="Y24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z24">
+      <c r="AA24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB24">
         <v>20</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AC24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3059,56 +3476,71 @@
       <c r="F25" t="s">
         <v>210</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25">
+        <v>170</v>
+      </c>
+      <c r="I25" t="s">
         <v>211</v>
       </c>
-      <c r="I25" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25">
         <v>165</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>212</v>
       </c>
+      <c r="M25" t="s">
+        <v>304</v>
+      </c>
       <c r="N25" t="s">
+        <v>299</v>
+      </c>
+      <c r="O25">
+        <v>0.47</v>
+      </c>
+      <c r="P25" t="s">
         <v>23</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>24</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>26</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>213</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>120</v>
       </c>
-      <c r="U25" t="s">
-        <v>255</v>
-      </c>
-      <c r="V25" t="s">
-        <v>260</v>
+      <c r="W25" t="s">
+        <v>254</v>
       </c>
       <c r="X25" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z25" t="s">
         <v>214</v>
       </c>
-      <c r="Y25" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z25">
+      <c r="AA25" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB25">
         <v>2.5</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AC25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3127,56 +3559,71 @@
       <c r="F26" t="s">
         <v>219</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
         <v>220</v>
       </c>
-      <c r="I26" t="s">
-        <v>253</v>
-      </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26">
         <v>550</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>221</v>
       </c>
+      <c r="M26" t="s">
+        <v>306</v>
+      </c>
       <c r="N26" t="s">
+        <v>300</v>
+      </c>
+      <c r="O26">
+        <v>186.83</v>
+      </c>
+      <c r="P26" t="s">
         <v>23</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>24</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>26</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>222</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>223</v>
       </c>
-      <c r="U26" t="s">
-        <v>256</v>
-      </c>
-      <c r="V26" t="s">
-        <v>260</v>
+      <c r="W26" t="s">
+        <v>255</v>
       </c>
       <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z26" t="s">
         <v>224</v>
       </c>
-      <c r="Y26" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z26">
+      <c r="AA26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB26">
         <v>22.5</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3195,56 +3642,71 @@
       <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27" t="s">
         <v>188</v>
       </c>
-      <c r="I27" t="s">
-        <v>253</v>
-      </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27">
         <v>50</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>227</v>
       </c>
+      <c r="M27" t="s">
+        <v>305</v>
+      </c>
       <c r="N27" t="s">
+        <v>301</v>
+      </c>
+      <c r="O27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P27" t="s">
         <v>23</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>24</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>26</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>4</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>111</v>
       </c>
-      <c r="U27" t="s">
-        <v>257</v>
-      </c>
-      <c r="V27" t="s">
-        <v>257</v>
+      <c r="W27" t="s">
+        <v>256</v>
       </c>
       <c r="X27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z27" t="s">
         <v>228</v>
       </c>
-      <c r="Y27" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z27">
+      <c r="AA27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB27">
         <v>12</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AC27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3263,56 +3725,71 @@
       <c r="F28" t="s">
         <v>233</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
         <v>234</v>
       </c>
-      <c r="I28" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>235</v>
       </c>
+      <c r="M28" t="s">
+        <v>305</v>
+      </c>
       <c r="N28" t="s">
+        <v>302</v>
+      </c>
+      <c r="O28">
+        <v>7.06</v>
+      </c>
+      <c r="P28" t="s">
         <v>23</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>26</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>4</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V28" t="s">
         <v>236</v>
       </c>
-      <c r="U28" t="s">
-        <v>255</v>
-      </c>
-      <c r="V28" t="s">
-        <v>260</v>
+      <c r="W28" t="s">
+        <v>254</v>
       </c>
       <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z28" t="s">
         <v>237</v>
       </c>
-      <c r="Y28" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z28">
+      <c r="AA28" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB28">
         <v>35</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AC28" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3331,52 +3808,67 @@
       <c r="F29" t="s">
         <v>98</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
         <v>188</v>
       </c>
-      <c r="I29" t="s">
-        <v>253</v>
-      </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29">
         <v>100</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>241</v>
       </c>
+      <c r="M29" t="s">
+        <v>304</v>
+      </c>
       <c r="N29" t="s">
+        <v>303</v>
+      </c>
+      <c r="O29">
+        <v>0.67</v>
+      </c>
+      <c r="P29" t="s">
         <v>23</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>24</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>26</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>6</v>
       </c>
-      <c r="T29" t="s">
+      <c r="V29" t="s">
         <v>242</v>
       </c>
-      <c r="U29" t="s">
-        <v>255</v>
-      </c>
-      <c r="V29" t="s">
-        <v>260</v>
+      <c r="W29" t="s">
+        <v>254</v>
       </c>
       <c r="X29" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s">
         <v>243</v>
       </c>
-      <c r="Y29" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z29">
+      <c r="AA29" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB29">
         <v>3.5</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AC29" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3390,160 +3882,160 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>35</v>
+      <c r="A2">
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>22.5</v>
+      <c r="A3">
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>20</v>
+      <c r="A4">
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>15</v>
+      <c r="A5">
+        <v>0.67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>13</v>
+      <c r="A6">
+        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>12</v>
+      <c r="A7">
+        <v>0.94</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>10</v>
+      <c r="A8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7.25</v>
+      <c r="A9">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7.25</v>
+      <c r="A10">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>6.75</v>
+      <c r="A11">
+        <v>1.65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>6</v>
+      <c r="A12">
+        <v>1.7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>5.5</v>
+      <c r="A13">
+        <v>3.45</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5.5</v>
+      <c r="A14">
+        <v>5.18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>5.5</v>
+      <c r="A15">
+        <v>6.28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>5</v>
+      <c r="A16">
+        <v>7.06</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>4</v>
+      <c r="A17">
+        <v>7.46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>3.5</v>
+      <c r="A18">
+        <v>7.74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>3.25</v>
+      <c r="A19">
+        <v>8.81</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>3</v>
+      <c r="A20">
+        <v>9.84</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>2.75</v>
+      <c r="A21">
+        <v>15.97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>2.5</v>
+      <c r="A22">
+        <v>20.8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>2.5</v>
+      <c r="A23">
+        <v>23.94</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>2.25</v>
+      <c r="A24">
+        <v>25.65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>2.25</v>
+      <c r="A25">
+        <v>38.270000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>2.25</v>
+      <c r="A26">
+        <v>38.92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>2</v>
+      <c r="A27">
+        <v>141.30000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>1.35</v>
+      <c r="A28">
+        <v>186.83</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>1.3</v>
+      <c r="A29">
+        <v>749.28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{0AF7E4CE-B3C8-1B4F-93DA-C54C67A4A081}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A29">
-      <sortCondition descending="1" ref="A1:A29"/>
+      <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
